--- a/biology/Médecine/François_Henri_Hallopeau/François_Henri_Hallopeau.xlsx
+++ b/biology/Médecine/François_Henri_Hallopeau/François_Henri_Hallopeau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Henri_Hallopeau</t>
+          <t>François_Henri_Hallopeau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Henri Hallopeau, né le 17 janvier 1842 et mort le 20 mars 1919 à Paris, est un dermatologue français. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Henri_Hallopeau</t>
+          <t>François_Henri_Hallopeau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">François Henri Hallopeau a étudié la médecine avec les professeurs Alfred Vulpian et Sigismond Jaccoud. En 1863, il devient Externe des hôpitaux de Paris, puis Interne des hôpitaux de Paris en 1866. En 1877, il est nommé médecin des hôpitaux de Paris, et l'année suivante obtient le poste de professeur agrégé à la Faculté de Médecine de Paris. 
 François Henri Hallopeau fut successivement chef de service à l'hôpital Tenon en 1880, à l’hôpital Saint-Antoine de 1881 à 1883, puis à l'hôpital Saint-Louis en 1884.
 Le docteur Hallopeau a cofondé et a été secrétaire général de la Société Française de Dermatologie et de syphiligraphie. Il est devenu membre de l'Académie de Médecine en 1893.
 Il fut membre d'un grand nombre de sociétés savantes. Hallopeau fut vice-président du 2e Congrès International de dermatologie tenu à Vienne en 1892. Il fut secrétaire général de la Société française de dermatologie et de syphiligraphie de 1893 à 1902.
-Il est inhumé au cimetière du Père-Lachaise (41e division)[1].
+Il est inhumé au cimetière du Père-Lachaise (41e division).
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Henri_Hallopeau</t>
+          <t>François_Henri_Hallopeau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1871, il inventa le mot « antibiotique », pour décrire une substance par opposition au développement de la vie.[réf. nécessaire]
 En 1889, il inventa un autre terme : la « trichotillomanie », qui est un trouble caractérisé par l’arrachage compulsif de ses propres poils et/ou cheveux, entraînant une alopécie manifeste à la partie du corps touchée.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Henri_Hallopeau</t>
+          <t>François_Henri_Hallopeau</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1875 : Hallopeau F., Études sur les myélites chroniques diffuses. Paris,
 1875 : Hallopeau F., Des paralysies bulbaires. Paris,
